--- a/Lab2/Tabelka.xlsx
+++ b/Lab2/Tabelka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Git\PTM2\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D9BEB-DD60-4C73-B835-EFEB89FF8109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA02D8F-0332-43CA-B695-BF5280EBEDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{C0D63B40-5B01-45E6-982E-A985553B2BE6}"/>
+    <workbookView xWindow="1395" yWindow="405" windowWidth="13905" windowHeight="10650" xr2:uid="{C0D63B40-5B01-45E6-982E-A985553B2BE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
